--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diya\Interns\JPMC Mentorship\CCB Risk Modelling\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378771E2-A507-4A11-93EC-C96B1BAA1A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD419974-D873-4026-96C5-68F85AACC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D53A18AB-DA7F-49AB-88F0-8EBEC6BF854B}"/>
   </bookViews>
@@ -461,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +650,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,6 +857,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1226,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1242,26 +1269,26 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1314,18 +1341,18 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1442,74 +1469,74 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diya\Interns\JPMC Mentorship\CCB Risk Modelling\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD419974-D873-4026-96C5-68F85AACC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9375A-FFE1-4724-B949-87AD8E88C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D53A18AB-DA7F-49AB-88F0-8EBEC6BF854B}"/>
   </bookViews>
@@ -461,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,6 +872,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1225,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E3DD65-589D-4D72-98F7-EBD1366FF410}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1341,10 +1350,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1357,10 +1366,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diya\Interns\JPMC Mentorship\CCB Risk Modelling\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9375A-FFE1-4724-B949-87AD8E88C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD8B52-C23D-4756-BFF0-0F7B4F2FA48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D53A18AB-DA7F-49AB-88F0-8EBEC6BF854B}"/>
   </bookViews>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E3DD65-589D-4D72-98F7-EBD1366FF410}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diya\Interns\JPMC Mentorship\CCB Risk Modelling\Case Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\JPMC Mentorship\CCB Risk Modelling\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD8B52-C23D-4756-BFF0-0F7B4F2FA48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3497D0-7A66-4E39-AA7C-1D8664358D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D53A18AB-DA7F-49AB-88F0-8EBEC6BF854B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D53A18AB-DA7F-49AB-88F0-8EBEC6BF854B}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Description" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,30 +639,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -673,7 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,29 +829,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1234,398 +1195,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E3DD65-589D-4D72-98F7-EBD1366FF410}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="A1:B48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="133.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
